--- a/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
+++ b/DbLayouts/L5-管理性作業/InnDocRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7FC659-ABB7-4326-BE37-3995D480FB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C32B0C-6BE2-41D0-97F0-8B352ED09149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2988" yWindow="12" windowWidth="17304" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,55 +21,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他ORDER條件</t>
+  </si>
+  <si>
+    <t>Uni</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>其他ORDER條件</t>
-  </si>
-  <si>
-    <t>Uni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Index1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForeignKey1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ForeignKey1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>欄位名稱</t>
   </si>
   <si>
@@ -89,43 +89,43 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>檔案借閱檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TitaActFg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CopyCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Remark</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ApplObj</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TitaEntDy</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TitaTlrNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TitaTxtNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>額度號碼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>申請序號</t>
@@ -135,7 +135,7 @@
   </si>
   <si>
     <t>申請或歸還</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>借閱人</t>
@@ -151,7 +151,7 @@
   </si>
   <si>
     <t>借閱日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>歸還日期</t>
@@ -167,30 +167,30 @@
   </si>
   <si>
     <t>登錄日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>登錄經辦</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>登錄交易序號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">3STEP TX -&gt; 1 2 3 4    </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>01: 清償
@@ -201,165 +201,182 @@
 06: 查閱
 07: 重估
 08: 其他</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1.重要袋
 2.普通袋
 3.重要袋&amp;普通袋
 4.其他</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo,ApplSeq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>InnDocRecord</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ApplSeq</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>KeeperEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ApplEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ApplCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ReturnDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ReturnEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ApplDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,ApplDate,UsageCode,ApplCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo ASC ,ApplDate ASC ,UsageCode ASC ,ApplCode ASC </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND ApplDate &gt;= ,AND ApplDate &lt;= ,AND UsageCode = ,AND ApplCode = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND ApplDate &gt;= ,AND ApplDate &lt;= ,AND ApplCode = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND ApplDate &gt;= ,AND ApplDate &lt;= ,AND UsageCode = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND ApplDate &gt;= ,AND ApplDate &lt;= </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL5903ARg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL5903BRg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL5903CRg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL5903DRg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+  </si>
+  <si>
+    <t>建檔人員</t>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+  </si>
+  <si>
+    <t>最後更新日期時間</t>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+  </si>
+  <si>
+    <t>findL5104ARg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ApplDate &gt;= ,AND ApplDate &lt;= ,AND ReturnDate = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsageCode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = ,AND ApplDate &gt;= ,AND ApplDate &lt;= ,AND UsageCode = ,AND ApplCode = </t>
+    <t xml:space="preserve">ApplDate &gt;= ,AND ApplDate &lt;= ,AND UsageCode = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL5104BRg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人戶號</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = ,AND ApplDate &gt;= ,AND ApplDate &lt;= ,AND ApplCode = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND ApplDate &gt;= ,AND ApplDate &lt;= ,AND UsageCode = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND ApplDate &gt;= ,AND ApplDate &lt;= </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL5903ARg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL5903BRg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL5903CRg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL5903DRg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-  </si>
-  <si>
-    <t>建檔人員</t>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-  </si>
-  <si>
-    <t>最後更新人員</t>
-  </si>
-  <si>
-    <t>findL5104ARg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ApplDate &gt;= ,AND ApplDate &lt;= ,AND ReturnDate = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UsageCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ApplDate &gt;= ,AND ApplDate &lt;= ,AND UsageCode = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL5104BRg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款人戶號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>JsonFields</t>
+  </si>
+  <si>
+    <t>jason格式紀錄欄</t>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -518,74 +535,125 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -593,44 +661,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="4" xr:uid="{FE44E59F-363A-47C9-B795-7027EFF2B131}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{05C0D31A-E96C-48F5-B3CA-7D09469B7F45}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -966,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1408,63 +1445,80 @@
       <c r="A26" s="24">
         <v>18</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="27"/>
+      <c r="B26" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="34">
+        <v>300</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="24">
         <v>19</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="27">
-        <v>6</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="24">
         <v>20</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="27"/>
+        <v>43</v>
+      </c>
+      <c r="E28" s="27">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="24">
         <v>21</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="32">
+        <v>22</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C30" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D30" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E30" s="27">
         <v>6</v>
       </c>
     </row>
@@ -1478,7 +1532,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1573,7 +1627,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
